--- a/output/0/tRNA-Cys-GCA-9-4.xlsx
+++ b/output/0/tRNA-Cys-GCA-9-4.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
   <si>
     <t>chr7</t>
   </si>
   <si>
-    <t>149404291</t>
-  </si>
-  <si>
-    <t>149404314</t>
+    <t>149404781</t>
+  </si>
+  <si>
+    <t>149404804</t>
   </si>
   <si>
     <t>0</t>
@@ -29,136 +29,85 @@
     <t>+</t>
   </si>
   <si>
-    <t>149404311</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
+    <t>149404801</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
   </si>
   <si>
     <t>255,0,0</t>
   </si>
   <si>
-    <t>TGTATATAAATCTATTCATA</t>
+    <t>GCATTTGACTGCAGATCAAG</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>75% (58)</t>
+  </si>
+  <si>
+    <t>17% (28)</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>149404788</t>
+  </si>
+  <si>
+    <t>149404811</t>
+  </si>
+  <si>
+    <t>149404808</t>
+  </si>
+  <si>
+    <t>ACTGCAGATCAAGAGGTCCC</t>
   </si>
   <si>
     <t>TGG</t>
   </si>
   <si>
-    <t>38% (46)</t>
-  </si>
-  <si>
-    <t>5% (17)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 38%, Moreno-Mateos: 5%</t>
-  </si>
-  <si>
-    <t>149404628</t>
-  </si>
-  <si>
-    <t>149404651</t>
-  </si>
-  <si>
-    <t>149404648</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>AAATTGCAGTTAGGGAGGTT</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>27% (42)</t>
-  </si>
-  <si>
-    <t>63% (51)</t>
+    <t>72% (57)</t>
+  </si>
+  <si>
+    <t>33% (37)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>149404800</t>
+  </si>
+  <si>
+    <t>149404823</t>
+  </si>
+  <si>
+    <t>149404820</t>
+  </si>
+  <si>
+    <t>GAGGTCCCTGGTTCAAATCC</t>
+  </si>
+  <si>
+    <t>46% (49)</t>
+  </si>
+  <si>
+    <t>50% (45)</t>
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>149404781</t>
-  </si>
-  <si>
-    <t>149404804</t>
-  </si>
-  <si>
-    <t>149404801</t>
-  </si>
-  <si>
-    <t>GCATTTGACTGCAGATCAAG</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>75% (58)</t>
-  </si>
-  <si>
-    <t>17% (28)</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>149404788</t>
-  </si>
-  <si>
-    <t>149404811</t>
-  </si>
-  <si>
-    <t>149404808</t>
-  </si>
-  <si>
-    <t>ACTGCAGATCAAGAGGTCCC</t>
-  </si>
-  <si>
-    <t>72% (57)</t>
-  </si>
-  <si>
-    <t>33% (37)</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>149404800</t>
-  </si>
-  <si>
-    <t>149404823</t>
-  </si>
-  <si>
-    <t>149404820</t>
-  </si>
-  <si>
-    <t>GAGGTCCCTGGTTCAAATCC</t>
-  </si>
-  <si>
-    <t>46% (49)</t>
-  </si>
-  <si>
-    <t>50% (45)</t>
   </si>
   <si>
     <t>68</t>
@@ -251,7 +200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -295,22 +244,22 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
@@ -321,10 +270,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -333,16 +282,16 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -351,10 +300,10 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
@@ -369,7 +318,7 @@
         <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S2" t="s">
         <v>3</v>
@@ -380,10 +329,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -392,43 +341,43 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
       </c>
       <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
-      </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S3" t="s">
         <v>3</v>
@@ -439,55 +388,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
       </c>
       <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
         <v>38</v>
       </c>
-      <c r="L4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" t="s">
-        <v>41</v>
-      </c>
       <c r="Q4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S4" t="s">
         <v>3</v>
@@ -498,175 +447,57 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
       </c>
       <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" t="s">
         <v>46</v>
       </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>47</v>
       </c>
-      <c r="O5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>49</v>
-      </c>
       <c r="R5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" t="s">
         <v>3</v>
       </c>
     </row>
